--- a/doc/Gateway-model-registration-form.xlsx
+++ b/doc/Gateway-model-registration-form.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="66">
   <si>
     <t>* Gateway infomation</t>
   </si>
@@ -35,9 +35,6 @@
     <t xml:space="preserve">   (Please contact us if you can not use the above three items.)</t>
   </si>
   <si>
-    <t>3. Sensor infomation</t>
-  </si>
-  <si>
     <t>4. Actuator infomation</t>
   </si>
   <si>
@@ -72,10 +69,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>4. Report interval (Minium is 60 second):</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">   4.1. Whether Thing+ Portal displays the report interval: </t>
     </r>
@@ -193,7 +186,415 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">4. Report interval (Minium is 60 seconds): </t>
+      <t xml:space="preserve">   4.1. Whether the report interval can be changed: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Yes</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   4.1. Whether Thing+ Portal displays the report interval: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Yes</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. Gateway name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Dali Gateway GA1000</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Device name: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Dali D100 Sensor Node</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2. Whether the device is able to automatically detect what sensors are attached to it: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Yes</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   * Sensor type: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>temperature</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     - Data format: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     - Decimal precision: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     - Unit: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>°C</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     - Min/Max(opt):</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   * Sensor type: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>humidity</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     (In the parameter, specify the content of the required value, unit, and whether it is required.)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     - Data format: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>number</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     - Unit: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>%</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     - Min/Max(opt): </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>-100/200</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     - Min/Max(opt): </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>0/100</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. Sensor infomation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. Actuator infomation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">   * Sensor type:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     - Command:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       . Parameter:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">   * Sensor type: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>led</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">       . Parameter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         1) Duration(opt)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            - Unit: second</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            - Min/Max: 0/180</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">       . Parameter: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>No</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     - Command: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>On</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     - Command: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Off</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">     - Command: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>Blink</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         1) Interval</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">         2) Duration(opt)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            - Min/Max: 0/10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            - Data format: number</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>* Device(Sensor node) information (If you have multiple devices in use, you should describe all of them here)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Would you please fill each qustion? </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hi Partners. To register your gateway with the sensors, we need to get the information as mentioned below.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gateway Model Registration From</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. Sensor infomation</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">3. How many the devices can be connected in a gateway: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. How many the devices can be connected in a gateway:</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. Report interval (Minimum is 60 second):</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. Report interval (Minimum is 60 seconds): </t>
     </r>
     <r>
       <rPr>
@@ -208,395 +609,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">   4.1. Whether the report interval can be changed: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Yes</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">   4.1. Whether Thing+ Portal displays the report interval: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Yes</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2. Gateway name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Dali Gateway GA1000</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. Device name: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Dali D100 Sensor Node</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">2. Whether the device is able to automatically detect what sensors are attached to it: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Yes</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">   * Sensor type: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>temperature</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">     - Data format: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">     - Decimal precision: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">     - Unit: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>°C</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     - Min/Max(opt):</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">   * Sensor type: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>humidity</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     (In the parameter, specify the content of the required value, unit, and whether it is required.)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">     - Data format: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>number</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">     - Unit: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>%</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">     - Min/Max(opt): </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>-100/200</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">     - Min/Max(opt): </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>0/100</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4. Sensor infomation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. Actuator infomation</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   * Sensor type:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">     - Command:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">       . Parameter:</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">   * Sensor type: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>led</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">       . Parameter</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">         1) Duration(opt)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">            - Unit: second</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">            - Min/Max: 0/180</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">            - Description : The LED will turn off after the duration. The parameter is optional; if not, the LED remains on.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">       . Parameter: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>No</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">     - Command: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>On</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">     - Command: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Off</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">     - Command: </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Consolas"/>
-        <family val="3"/>
-      </rPr>
-      <t>Blink</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">         1) Interval</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">         2) Duration(opt)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">            - Min/Max: 0/10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">            - Data format: number</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>* Device(Sensor node) information (If you have multiple devices in use, you should describe all of them here)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">            - Description : The LED will turn off after the duration. The parameter is optional; if not, the LED remains on.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">            - Description : The LED will rotate between on and off during the specified interval.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> Would you please fill each qustion? </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hi Partners. To register your gateway with the sensors, we need to get the information as mentioned below.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Gateway Model Registration From</t>
+    <t xml:space="preserve">            - Description: The LED will turn off after the duration. The parameter is optional; if not, the LED remains on.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            - Description: The LED will rotate between on and off during the specified interval.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">            - Description: The LED will turn off after the duration. The parameter is optional; if not, the LED remains on.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1141,10 +1162,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:C80"/>
+  <dimension ref="B1:C82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1156,22 +1177,22 @@
   <sheetData>
     <row r="1" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B1" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" s="7" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="11" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
@@ -1182,19 +1203,19 @@
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="9"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="9"/>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="9"/>
     </row>
@@ -1212,19 +1233,19 @@
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="C12" s="9"/>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C13" s="9"/>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C14" s="9"/>
     </row>
@@ -1234,384 +1255,396 @@
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C16" s="9"/>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C17" s="9"/>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C18" s="9"/>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="C19" s="9"/>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C20" s="9"/>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C21" s="9"/>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C22" s="9"/>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C23" s="9"/>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="C24" s="9"/>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C25" s="9"/>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C26" s="9"/>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C27" s="9"/>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C28" s="9"/>
     </row>
-    <row r="29" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="10"/>
-    </row>
-    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="12" t="s">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C30" s="10"/>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="2:3" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B32" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="13"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="15"/>
+      <c r="C33" s="13"/>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" s="14" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C34" s="15"/>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C35" s="15"/>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B36" s="14" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C37" s="15"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B38" s="14" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="C38" s="15"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="C39" s="15"/>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B40" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C40" s="15"/>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B41" s="14"/>
+      <c r="B41" s="14" t="s">
+        <v>20</v>
+      </c>
       <c r="C41" s="15"/>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B42" s="16" t="s">
-        <v>58</v>
-      </c>
+      <c r="B42" s="14"/>
       <c r="C42" s="15"/>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="14" t="s">
-        <v>26</v>
+      <c r="B43" s="16" t="s">
+        <v>54</v>
       </c>
       <c r="C43" s="15"/>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B44" s="14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C44" s="15"/>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C45" s="15"/>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B46" s="14" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C46" s="15"/>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="C47" s="15"/>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B48" s="14" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C48" s="15"/>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B49" s="14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C49" s="15"/>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B50" s="14" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="C50" s="15"/>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C51" s="15"/>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B52" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C52" s="15"/>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B53" s="14" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C53" s="15"/>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B54" s="14" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C54" s="15"/>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B55" s="14" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C55" s="15"/>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B56" s="14" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="C56" s="15"/>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B57" s="14" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C57" s="15"/>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B58" s="14" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="C58" s="15"/>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B59" s="14" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C59" s="15"/>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B60" s="17" t="s">
-        <v>46</v>
+      <c r="B60" s="14" t="s">
+        <v>47</v>
       </c>
       <c r="C60" s="15"/>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B61" s="17" t="s">
-        <v>57</v>
+      <c r="B61" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="C61" s="15"/>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B62" s="17" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C62" s="15"/>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B63" s="17" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C63" s="15"/>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B64" s="17" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="C64" s="15"/>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B65" s="14" t="s">
-        <v>52</v>
+      <c r="B65" s="17" t="s">
+        <v>45</v>
       </c>
       <c r="C65" s="15"/>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B66" s="14" t="s">
-        <v>50</v>
+      <c r="B66" s="17" t="s">
+        <v>63</v>
       </c>
       <c r="C66" s="15"/>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B67" s="14" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C67" s="15"/>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B68" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C68" s="15"/>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B69" s="17" t="s">
-        <v>54</v>
+      <c r="B69" s="14" t="s">
+        <v>49</v>
       </c>
       <c r="C69" s="15"/>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B70" s="17" t="s">
-        <v>57</v>
+      <c r="B70" s="14" t="s">
+        <v>42</v>
       </c>
       <c r="C70" s="15"/>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B71" s="17" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C71" s="15"/>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B72" s="17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C72" s="15"/>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B73" s="17" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C73" s="15"/>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B74" s="17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C74" s="15"/>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B75" s="17" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="C75" s="15"/>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B76" s="17" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C76" s="15"/>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B77" s="17" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C77" s="15"/>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B78" s="17" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C78" s="15"/>
     </row>
-    <row r="79" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C79" s="19"/>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B79" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C79" s="15"/>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B80" s="1"/>
+      <c r="B80" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C80" s="15"/>
+    </row>
+    <row r="81" spans="2:3" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B81" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C81" s="19"/>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B82" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/doc/Gateway-model-registration-form.xlsx
+++ b/doc/Gateway-model-registration-form.xlsx
@@ -25,7 +25,7 @@
     <t>Gateway Model Registration Form</t>
   </si>
   <si>
-    <t>* Gateway infomation</t>
+    <t>* Gateway information</t>
   </si>
   <si>
     <t>1. Vendor name:</t>
@@ -128,7 +128,7 @@
     <t>3. How many the devices can be connected in a gateway:</t>
   </si>
   <si>
-    <t>4. Sensor infomation</t>
+    <t>4. Sensor information</t>
   </si>
   <si>
     <t xml:space="preserve">   * Sensor type:</t>
@@ -162,7 +162,7 @@
     <t xml:space="preserve">     - Min/Max(opt):</t>
   </si>
   <si>
-    <t>5. Actuator infomation</t>
+    <t>5. Actuator information</t>
   </si>
   <si>
     <t xml:space="preserve">     - Command:</t>
@@ -500,7 +500,7 @@
     </r>
   </si>
   <si>
-    <t>4. Actuator infomation</t>
+    <t>4. Actuator information</t>
   </si>
   <si>
     <r>
@@ -544,7 +544,7 @@
     <t xml:space="preserve">       . Parameter</t>
   </si>
   <si>
-    <t xml:space="preserve">         1) Duration(opt)</t>
+    <t xml:space="preserve">         1) Duration (opt.)</t>
   </si>
   <si>
     <t xml:space="preserve">            - Data format: number</t>
@@ -625,7 +625,7 @@
     <t xml:space="preserve">            - Description: The LED will rotate between on and off during the specified interval.</t>
   </si>
   <si>
-    <t xml:space="preserve">         2) Duration(opt)</t>
+    <t xml:space="preserve">         2) Duration (opt.)</t>
   </si>
 </sst>
 </file>
@@ -702,7 +702,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -723,28 +723,28 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="medium">
         <color indexed="8"/>
@@ -753,16 +753,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="medium">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -771,19 +771,19 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="medium">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="medium">
         <color indexed="8"/>
@@ -792,7 +792,7 @@
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -801,13 +801,13 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -816,10 +816,10 @@
         <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="medium">
         <color indexed="8"/>
@@ -828,13 +828,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="medium">
         <color indexed="8"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="medium">
         <color indexed="8"/>
@@ -843,16 +843,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="medium">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -924,14 +924,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -943,10 +943,10 @@
     <xf numFmtId="49" fontId="5" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -955,14 +955,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
@@ -979,7 +976,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1026,8 +1023,8 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ff333333"/>
       <rgbColor rgb="ffd8d8d8"/>
       <rgbColor rgb="ffff0000"/>
@@ -1229,17 +1226,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1267,10 +1264,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Apple SD 산돌고딕 Neo 일반체"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1518,12 +1515,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1810,7 +1807,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1838,10 +1835,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Apple SD 산돌고딕 Neo 일반체"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2166,7 +2163,7 @@
       <c r="B7" t="s" s="11">
         <v>5</v>
       </c>
-      <c r="C7" s="12"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="10"/>
       <c r="E7" s="2"/>
     </row>
@@ -2175,7 +2172,7 @@
       <c r="B8" t="s" s="11">
         <v>6</v>
       </c>
-      <c r="C8" s="12"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="10"/>
       <c r="E8" s="2"/>
     </row>
@@ -2184,7 +2181,7 @@
       <c r="B9" t="s" s="11">
         <v>7</v>
       </c>
-      <c r="C9" s="12"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="10"/>
       <c r="E9" s="2"/>
     </row>
@@ -2193,7 +2190,7 @@
       <c r="B10" t="s" s="11">
         <v>8</v>
       </c>
-      <c r="C10" s="12"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="10"/>
       <c r="E10" s="2"/>
     </row>
@@ -2202,7 +2199,7 @@
       <c r="B11" t="s" s="11">
         <v>9</v>
       </c>
-      <c r="C11" s="12"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="10"/>
       <c r="E11" s="2"/>
     </row>
@@ -2211,7 +2208,7 @@
       <c r="B12" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="C12" s="12"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="10"/>
       <c r="E12" s="2"/>
     </row>
@@ -2220,7 +2217,7 @@
       <c r="B13" t="s" s="11">
         <v>11</v>
       </c>
-      <c r="C13" s="12"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="10"/>
       <c r="E13" s="2"/>
     </row>
@@ -2229,23 +2226,23 @@
       <c r="B14" t="s" s="11">
         <v>12</v>
       </c>
-      <c r="C14" s="12"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="10"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" ht="16" customHeight="1">
       <c r="A15" s="7"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="12"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="10"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" ht="16" customHeight="1">
       <c r="A16" s="7"/>
-      <c r="B16" t="s" s="14">
+      <c r="B16" t="s" s="13">
         <v>13</v>
       </c>
-      <c r="C16" s="12"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="10"/>
       <c r="E16" s="2"/>
     </row>
@@ -2254,7 +2251,7 @@
       <c r="B17" t="s" s="11">
         <v>14</v>
       </c>
-      <c r="C17" s="12"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="10"/>
       <c r="E17" s="2"/>
     </row>
@@ -2263,7 +2260,7 @@
       <c r="B18" t="s" s="11">
         <v>15</v>
       </c>
-      <c r="C18" s="12"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="10"/>
       <c r="E18" s="2"/>
     </row>
@@ -2272,7 +2269,7 @@
       <c r="B19" t="s" s="11">
         <v>16</v>
       </c>
-      <c r="C19" s="12"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="10"/>
       <c r="E19" s="2"/>
     </row>
@@ -2281,7 +2278,7 @@
       <c r="B20" t="s" s="11">
         <v>17</v>
       </c>
-      <c r="C20" s="12"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="10"/>
       <c r="E20" s="2"/>
     </row>
@@ -2290,7 +2287,7 @@
       <c r="B21" t="s" s="11">
         <v>18</v>
       </c>
-      <c r="C21" s="12"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="10"/>
       <c r="E21" s="2"/>
     </row>
@@ -2299,7 +2296,7 @@
       <c r="B22" t="s" s="11">
         <v>19</v>
       </c>
-      <c r="C22" s="12"/>
+      <c r="C22" s="7"/>
       <c r="D22" s="10"/>
       <c r="E22" s="2"/>
     </row>
@@ -2308,7 +2305,7 @@
       <c r="B23" t="s" s="11">
         <v>20</v>
       </c>
-      <c r="C23" s="12"/>
+      <c r="C23" s="7"/>
       <c r="D23" s="10"/>
       <c r="E23" s="2"/>
     </row>
@@ -2317,7 +2314,7 @@
       <c r="B24" t="s" s="11">
         <v>21</v>
       </c>
-      <c r="C24" s="12"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="10"/>
       <c r="E24" s="2"/>
     </row>
@@ -2326,7 +2323,7 @@
       <c r="B25" t="s" s="11">
         <v>22</v>
       </c>
-      <c r="C25" s="12"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="10"/>
       <c r="E25" s="2"/>
     </row>
@@ -2335,7 +2332,7 @@
       <c r="B26" t="s" s="11">
         <v>23</v>
       </c>
-      <c r="C26" s="12"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="10"/>
       <c r="E26" s="2"/>
     </row>
@@ -2344,7 +2341,7 @@
       <c r="B27" t="s" s="11">
         <v>18</v>
       </c>
-      <c r="C27" s="12"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="10"/>
       <c r="E27" s="2"/>
     </row>
@@ -2353,7 +2350,7 @@
       <c r="B28" t="s" s="11">
         <v>24</v>
       </c>
-      <c r="C28" s="12"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="10"/>
       <c r="E28" s="2"/>
     </row>
@@ -2362,23 +2359,23 @@
       <c r="B29" t="s" s="11">
         <v>25</v>
       </c>
-      <c r="C29" s="12"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="10"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" ht="17.25" customHeight="1">
       <c r="A30" s="7"/>
-      <c r="B30" t="s" s="15">
+      <c r="B30" t="s" s="14">
         <v>26</v>
       </c>
-      <c r="C30" s="16"/>
+      <c r="C30" s="15"/>
       <c r="D30" s="10"/>
       <c r="E30" s="2"/>
     </row>
     <row r="31" ht="16.5" customHeight="1">
       <c r="A31" s="2"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="18"/>
+      <c r="B31" s="16"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
@@ -2393,447 +2390,447 @@
     </row>
     <row r="33" ht="16.5" customHeight="1">
       <c r="A33" s="7"/>
-      <c r="B33" t="s" s="19">
+      <c r="B33" t="s" s="18">
         <v>4</v>
       </c>
-      <c r="C33" s="20"/>
+      <c r="C33" s="19"/>
       <c r="D33" s="10"/>
       <c r="E33" s="2"/>
     </row>
     <row r="34" ht="16" customHeight="1">
       <c r="A34" s="7"/>
-      <c r="B34" t="s" s="21">
+      <c r="B34" t="s" s="20">
         <v>28</v>
       </c>
-      <c r="C34" s="22"/>
+      <c r="C34" s="21"/>
       <c r="D34" s="10"/>
       <c r="E34" s="2"/>
     </row>
     <row r="35" ht="16" customHeight="1">
       <c r="A35" s="7"/>
-      <c r="B35" t="s" s="21">
+      <c r="B35" t="s" s="20">
         <v>29</v>
       </c>
-      <c r="C35" s="22"/>
+      <c r="C35" s="21"/>
       <c r="D35" s="10"/>
       <c r="E35" s="2"/>
     </row>
     <row r="36" ht="16" customHeight="1">
       <c r="A36" s="7"/>
-      <c r="B36" t="s" s="21">
+      <c r="B36" t="s" s="20">
         <v>30</v>
       </c>
-      <c r="C36" s="22"/>
+      <c r="C36" s="21"/>
       <c r="D36" s="10"/>
       <c r="E36" s="2"/>
     </row>
     <row r="37" ht="16" customHeight="1">
       <c r="A37" s="7"/>
-      <c r="B37" t="s" s="21">
+      <c r="B37" t="s" s="20">
         <v>8</v>
       </c>
-      <c r="C37" s="22"/>
+      <c r="C37" s="21"/>
       <c r="D37" s="10"/>
       <c r="E37" s="2"/>
     </row>
     <row r="38" ht="16" customHeight="1">
       <c r="A38" s="7"/>
-      <c r="B38" t="s" s="21">
+      <c r="B38" t="s" s="20">
         <v>9</v>
       </c>
-      <c r="C38" s="22"/>
+      <c r="C38" s="21"/>
       <c r="D38" s="10"/>
       <c r="E38" s="2"/>
     </row>
     <row r="39" ht="16" customHeight="1">
       <c r="A39" s="7"/>
-      <c r="B39" t="s" s="21">
+      <c r="B39" t="s" s="20">
         <v>31</v>
       </c>
-      <c r="C39" s="22"/>
+      <c r="C39" s="21"/>
       <c r="D39" s="10"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" ht="16" customHeight="1">
       <c r="A40" s="7"/>
-      <c r="B40" t="s" s="21">
+      <c r="B40" t="s" s="20">
         <v>32</v>
       </c>
-      <c r="C40" s="22"/>
+      <c r="C40" s="21"/>
       <c r="D40" s="10"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" ht="16" customHeight="1">
       <c r="A41" s="7"/>
-      <c r="B41" t="s" s="21">
+      <c r="B41" t="s" s="20">
         <v>33</v>
       </c>
-      <c r="C41" s="22"/>
+      <c r="C41" s="21"/>
       <c r="D41" s="10"/>
       <c r="E41" s="2"/>
     </row>
     <row r="42" ht="16" customHeight="1">
       <c r="A42" s="7"/>
-      <c r="B42" s="23"/>
-      <c r="C42" s="22"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="21"/>
       <c r="D42" s="10"/>
       <c r="E42" s="2"/>
     </row>
     <row r="43" ht="16" customHeight="1">
       <c r="A43" s="7"/>
-      <c r="B43" t="s" s="24">
+      <c r="B43" t="s" s="23">
         <v>13</v>
       </c>
-      <c r="C43" s="22"/>
+      <c r="C43" s="21"/>
       <c r="D43" s="10"/>
       <c r="E43" s="2"/>
     </row>
     <row r="44" ht="16" customHeight="1">
       <c r="A44" s="7"/>
-      <c r="B44" t="s" s="21">
+      <c r="B44" t="s" s="20">
         <v>34</v>
       </c>
-      <c r="C44" s="22"/>
+      <c r="C44" s="21"/>
       <c r="D44" s="10"/>
       <c r="E44" s="2"/>
     </row>
     <row r="45" ht="16" customHeight="1">
       <c r="A45" s="7"/>
-      <c r="B45" t="s" s="21">
+      <c r="B45" t="s" s="20">
         <v>35</v>
       </c>
-      <c r="C45" s="22"/>
+      <c r="C45" s="21"/>
       <c r="D45" s="10"/>
       <c r="E45" s="2"/>
     </row>
     <row r="46" ht="16" customHeight="1">
       <c r="A46" s="7"/>
-      <c r="B46" t="s" s="21">
+      <c r="B46" t="s" s="20">
         <v>36</v>
       </c>
-      <c r="C46" s="22"/>
+      <c r="C46" s="21"/>
       <c r="D46" s="10"/>
       <c r="E46" s="2"/>
     </row>
     <row r="47" ht="16" customHeight="1">
       <c r="A47" s="7"/>
-      <c r="B47" t="s" s="21">
+      <c r="B47" t="s" s="20">
         <v>17</v>
       </c>
-      <c r="C47" s="22"/>
+      <c r="C47" s="21"/>
       <c r="D47" s="10"/>
       <c r="E47" s="2"/>
     </row>
     <row r="48" ht="16" customHeight="1">
       <c r="A48" s="7"/>
-      <c r="B48" t="s" s="21">
+      <c r="B48" t="s" s="20">
         <v>37</v>
       </c>
-      <c r="C48" s="22"/>
+      <c r="C48" s="21"/>
       <c r="D48" s="10"/>
       <c r="E48" s="2"/>
     </row>
     <row r="49" ht="16" customHeight="1">
       <c r="A49" s="7"/>
-      <c r="B49" t="s" s="21">
+      <c r="B49" t="s" s="20">
         <v>38</v>
       </c>
-      <c r="C49" s="22"/>
+      <c r="C49" s="21"/>
       <c r="D49" s="10"/>
       <c r="E49" s="2"/>
     </row>
     <row r="50" ht="16" customHeight="1">
       <c r="A50" s="7"/>
-      <c r="B50" t="s" s="21">
+      <c r="B50" t="s" s="20">
         <v>39</v>
       </c>
-      <c r="C50" s="22"/>
+      <c r="C50" s="21"/>
       <c r="D50" s="10"/>
       <c r="E50" s="2"/>
     </row>
     <row r="51" ht="16" customHeight="1">
       <c r="A51" s="7"/>
-      <c r="B51" t="s" s="21">
+      <c r="B51" t="s" s="20">
         <v>40</v>
       </c>
-      <c r="C51" s="22"/>
+      <c r="C51" s="21"/>
       <c r="D51" s="10"/>
       <c r="E51" s="2"/>
     </row>
     <row r="52" ht="16" customHeight="1">
       <c r="A52" s="7"/>
-      <c r="B52" t="s" s="21">
+      <c r="B52" t="s" s="20">
         <v>41</v>
       </c>
-      <c r="C52" s="22"/>
+      <c r="C52" s="21"/>
       <c r="D52" s="10"/>
       <c r="E52" s="2"/>
     </row>
     <row r="53" ht="16" customHeight="1">
       <c r="A53" s="7"/>
-      <c r="B53" t="s" s="21">
+      <c r="B53" t="s" s="20">
         <v>42</v>
       </c>
-      <c r="C53" s="22"/>
+      <c r="C53" s="21"/>
       <c r="D53" s="10"/>
       <c r="E53" s="2"/>
     </row>
     <row r="54" ht="16" customHeight="1">
       <c r="A54" s="7"/>
-      <c r="B54" t="s" s="21">
+      <c r="B54" t="s" s="20">
         <v>38</v>
       </c>
-      <c r="C54" s="22"/>
+      <c r="C54" s="21"/>
       <c r="D54" s="10"/>
       <c r="E54" s="2"/>
     </row>
     <row r="55" ht="16" customHeight="1">
       <c r="A55" s="7"/>
-      <c r="B55" t="s" s="21">
+      <c r="B55" t="s" s="20">
         <v>43</v>
       </c>
-      <c r="C55" s="22"/>
+      <c r="C55" s="21"/>
       <c r="D55" s="10"/>
       <c r="E55" s="2"/>
     </row>
     <row r="56" ht="16" customHeight="1">
       <c r="A56" s="7"/>
-      <c r="B56" t="s" s="21">
+      <c r="B56" t="s" s="20">
         <v>40</v>
       </c>
-      <c r="C56" s="22"/>
+      <c r="C56" s="21"/>
       <c r="D56" s="10"/>
       <c r="E56" s="2"/>
     </row>
     <row r="57" ht="16" customHeight="1">
       <c r="A57" s="7"/>
-      <c r="B57" t="s" s="21">
+      <c r="B57" t="s" s="20">
         <v>44</v>
       </c>
-      <c r="C57" s="22"/>
+      <c r="C57" s="21"/>
       <c r="D57" s="10"/>
       <c r="E57" s="2"/>
     </row>
     <row r="58" ht="16" customHeight="1">
       <c r="A58" s="7"/>
-      <c r="B58" t="s" s="21">
+      <c r="B58" t="s" s="20">
         <v>45</v>
       </c>
-      <c r="C58" s="22"/>
+      <c r="C58" s="21"/>
       <c r="D58" s="10"/>
       <c r="E58" s="2"/>
     </row>
     <row r="59" ht="16" customHeight="1">
       <c r="A59" s="7"/>
-      <c r="B59" t="s" s="21">
+      <c r="B59" t="s" s="20">
         <v>46</v>
       </c>
-      <c r="C59" s="22"/>
+      <c r="C59" s="21"/>
       <c r="D59" s="10"/>
       <c r="E59" s="2"/>
     </row>
     <row r="60" ht="16" customHeight="1">
       <c r="A60" s="7"/>
-      <c r="B60" t="s" s="21">
+      <c r="B60" t="s" s="20">
         <v>47</v>
       </c>
-      <c r="C60" s="22"/>
+      <c r="C60" s="21"/>
       <c r="D60" s="10"/>
       <c r="E60" s="2"/>
     </row>
     <row r="61" ht="16" customHeight="1">
       <c r="A61" s="7"/>
-      <c r="B61" t="s" s="21">
+      <c r="B61" t="s" s="20">
         <v>48</v>
       </c>
-      <c r="C61" s="22"/>
+      <c r="C61" s="21"/>
       <c r="D61" s="10"/>
       <c r="E61" s="2"/>
     </row>
     <row r="62" ht="16" customHeight="1">
       <c r="A62" s="7"/>
-      <c r="B62" t="s" s="25">
+      <c r="B62" t="s" s="24">
         <v>49</v>
       </c>
-      <c r="C62" s="22"/>
+      <c r="C62" s="21"/>
       <c r="D62" s="10"/>
       <c r="E62" s="2"/>
     </row>
     <row r="63" ht="16" customHeight="1">
       <c r="A63" s="7"/>
-      <c r="B63" t="s" s="25">
+      <c r="B63" t="s" s="24">
         <v>50</v>
       </c>
-      <c r="C63" s="22"/>
+      <c r="C63" s="21"/>
       <c r="D63" s="10"/>
       <c r="E63" s="2"/>
     </row>
     <row r="64" ht="16" customHeight="1">
       <c r="A64" s="7"/>
-      <c r="B64" t="s" s="25">
+      <c r="B64" t="s" s="24">
         <v>51</v>
       </c>
-      <c r="C64" s="22"/>
+      <c r="C64" s="21"/>
       <c r="D64" s="10"/>
       <c r="E64" s="2"/>
     </row>
     <row r="65" ht="16" customHeight="1">
       <c r="A65" s="7"/>
-      <c r="B65" t="s" s="25">
+      <c r="B65" t="s" s="24">
         <v>52</v>
       </c>
-      <c r="C65" s="22"/>
+      <c r="C65" s="21"/>
       <c r="D65" s="10"/>
       <c r="E65" s="2"/>
     </row>
     <row r="66" ht="16" customHeight="1">
       <c r="A66" s="7"/>
-      <c r="B66" t="s" s="25">
+      <c r="B66" t="s" s="24">
         <v>53</v>
       </c>
-      <c r="C66" s="22"/>
+      <c r="C66" s="21"/>
       <c r="D66" s="10"/>
       <c r="E66" s="2"/>
     </row>
     <row r="67" ht="16" customHeight="1">
       <c r="A67" s="7"/>
-      <c r="B67" t="s" s="21">
+      <c r="B67" t="s" s="20">
         <v>54</v>
       </c>
-      <c r="C67" s="22"/>
+      <c r="C67" s="21"/>
       <c r="D67" s="10"/>
       <c r="E67" s="2"/>
     </row>
     <row r="68" ht="16" customHeight="1">
       <c r="A68" s="7"/>
-      <c r="B68" t="s" s="21">
+      <c r="B68" t="s" s="20">
         <v>55</v>
       </c>
-      <c r="C68" s="22"/>
+      <c r="C68" s="21"/>
       <c r="D68" s="10"/>
       <c r="E68" s="2"/>
     </row>
     <row r="69" ht="16" customHeight="1">
       <c r="A69" s="7"/>
-      <c r="B69" t="s" s="21">
+      <c r="B69" t="s" s="20">
         <v>56</v>
       </c>
-      <c r="C69" s="22"/>
+      <c r="C69" s="21"/>
       <c r="D69" s="10"/>
       <c r="E69" s="2"/>
     </row>
     <row r="70" ht="16" customHeight="1">
       <c r="A70" s="7"/>
-      <c r="B70" t="s" s="21">
+      <c r="B70" t="s" s="20">
         <v>48</v>
       </c>
-      <c r="C70" s="22"/>
+      <c r="C70" s="21"/>
       <c r="D70" s="10"/>
       <c r="E70" s="2"/>
     </row>
     <row r="71" ht="16" customHeight="1">
       <c r="A71" s="7"/>
-      <c r="B71" t="s" s="25">
+      <c r="B71" t="s" s="24">
         <v>57</v>
       </c>
-      <c r="C71" s="22"/>
+      <c r="C71" s="21"/>
       <c r="D71" s="10"/>
       <c r="E71" s="2"/>
     </row>
     <row r="72" ht="16" customHeight="1">
       <c r="A72" s="7"/>
-      <c r="B72" t="s" s="25">
+      <c r="B72" t="s" s="24">
         <v>50</v>
       </c>
-      <c r="C72" s="22"/>
+      <c r="C72" s="21"/>
       <c r="D72" s="10"/>
       <c r="E72" s="2"/>
     </row>
     <row r="73" ht="16" customHeight="1">
       <c r="A73" s="7"/>
-      <c r="B73" t="s" s="25">
+      <c r="B73" t="s" s="24">
         <v>51</v>
       </c>
-      <c r="C73" s="22"/>
+      <c r="C73" s="21"/>
       <c r="D73" s="10"/>
       <c r="E73" s="2"/>
     </row>
     <row r="74" ht="16" customHeight="1">
       <c r="A74" s="7"/>
-      <c r="B74" t="s" s="25">
+      <c r="B74" t="s" s="24">
         <v>58</v>
       </c>
-      <c r="C74" s="22"/>
+      <c r="C74" s="21"/>
       <c r="D74" s="10"/>
       <c r="E74" s="2"/>
     </row>
     <row r="75" ht="16" customHeight="1">
       <c r="A75" s="7"/>
-      <c r="B75" t="s" s="25">
+      <c r="B75" t="s" s="24">
         <v>59</v>
       </c>
-      <c r="C75" s="22"/>
+      <c r="C75" s="21"/>
       <c r="D75" s="10"/>
       <c r="E75" s="2"/>
     </row>
     <row r="76" ht="16" customHeight="1">
       <c r="A76" s="7"/>
-      <c r="B76" t="s" s="25">
+      <c r="B76" t="s" s="24">
         <v>60</v>
       </c>
-      <c r="C76" s="22"/>
+      <c r="C76" s="21"/>
       <c r="D76" s="10"/>
       <c r="E76" s="2"/>
     </row>
     <row r="77" ht="16" customHeight="1">
       <c r="A77" s="7"/>
-      <c r="B77" t="s" s="25">
+      <c r="B77" t="s" s="24">
         <v>50</v>
       </c>
-      <c r="C77" s="22"/>
+      <c r="C77" s="21"/>
       <c r="D77" s="10"/>
       <c r="E77" s="2"/>
     </row>
     <row r="78" ht="16" customHeight="1">
       <c r="A78" s="7"/>
-      <c r="B78" t="s" s="25">
+      <c r="B78" t="s" s="24">
         <v>51</v>
       </c>
-      <c r="C78" s="22"/>
+      <c r="C78" s="21"/>
       <c r="D78" s="10"/>
       <c r="E78" s="2"/>
     </row>
     <row r="79" ht="16" customHeight="1">
       <c r="A79" s="7"/>
-      <c r="B79" t="s" s="25">
+      <c r="B79" t="s" s="24">
         <v>52</v>
       </c>
-      <c r="C79" s="22"/>
+      <c r="C79" s="21"/>
       <c r="D79" s="10"/>
       <c r="E79" s="2"/>
     </row>
     <row r="80" ht="16" customHeight="1">
       <c r="A80" s="7"/>
-      <c r="B80" t="s" s="25">
+      <c r="B80" t="s" s="24">
         <v>53</v>
       </c>
-      <c r="C80" s="22"/>
+      <c r="C80" s="21"/>
       <c r="D80" s="10"/>
       <c r="E80" s="2"/>
     </row>
     <row r="81" ht="17.25" customHeight="1">
       <c r="A81" s="7"/>
-      <c r="B81" t="s" s="26">
+      <c r="B81" t="s" s="25">
         <v>26</v>
       </c>
-      <c r="C81" s="27"/>
+      <c r="C81" s="26"/>
       <c r="D81" s="10"/>
       <c r="E81" s="2"/>
     </row>
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="2"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="18"/>
+      <c r="B82" s="16"/>
+      <c r="C82" s="17"/>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
     </row>
